--- a/WBS-RPG.xlsx
+++ b/WBS-RPG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>WBS</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Ayoub</t>
+  </si>
+  <si>
+    <t>Tiphanie</t>
   </si>
 </sst>
 </file>
@@ -698,6 +704,18 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,18 +723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,12 +1048,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1291,7 +1297,9 @@
       <c r="D27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
@@ -1357,7 +1365,9 @@
       <c r="D34" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
@@ -1410,14 +1420,14 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" s="16" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="2:5" s="16" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="23" t="s">
